--- a/DIAGRAMA ENTIDAD RELACION PROYECTO BABYLOT.xlsx
+++ b/DIAGRAMA ENTIDAD RELACION PROYECTO BABYLOT.xlsx
@@ -579,7 +579,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="474">
   <si>
     <t xml:space="preserve">LOTERIA</t>
   </si>
@@ -1079,6 +1079,9 @@
     <t xml:space="preserve">ZONA_ID</t>
   </si>
   <si>
+    <t xml:space="preserve">TICKET*OLD MODEL(Consultar mas abajo)</t>
+  </si>
+  <si>
     <t xml:space="preserve">TICKET_iD</t>
   </si>
   <si>
@@ -1151,16 +1154,91 @@
     <t xml:space="preserve">RECARGAS</t>
   </si>
   <si>
+    <t xml:space="preserve">JUGADALOTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUGADALOT_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QPT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREATED_AT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPDATED_AT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TICKET_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SORTEOT_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMADOJUGADA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PELEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APUESTACINTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POSIBLEPAGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACIERTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAGOREAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Si o No, Anulado)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(pagado por)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(directo, pale, tripleta…)</t>
+  </si>
+  <si>
     <t xml:space="preserve">ok</t>
   </si>
   <si>
-    <t xml:space="preserve">ciudadts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">consorciots</t>
-  </si>
-  <si>
-    <t xml:space="preserve">direccionts</t>
+    <t xml:space="preserve">TICKETS_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USER_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACTIVO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GANADOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FECHAIMPRESION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARLAY</t>
   </si>
   <si>
     <t xml:space="preserve">empleadots</t>
@@ -1235,15 +1313,6 @@
     <t xml:space="preserve">X=1,2,3..7 WEEKDAY</t>
   </si>
   <si>
-    <t xml:space="preserve">TICKET_ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MONTO</t>
-  </si>
-  <si>
     <t xml:space="preserve">Q1</t>
   </si>
   <si>
@@ -1272,15 +1341,6 @@
   </si>
   <si>
     <t xml:space="preserve">Sorteo.where(sigla: =&gt; “0101”).id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QPT</t>
   </si>
   <si>
     <t xml:space="preserve">SORTEO_ID</t>
@@ -1954,6 +2014,15 @@
     <t xml:space="preserve">EXCEL LOCAL</t>
   </si>
   <si>
+    <t xml:space="preserve">consorciots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ciudadts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">direccionts</t>
+  </si>
+  <si>
     <t xml:space="preserve"> TERMINALT X NO USO POR AHORA</t>
   </si>
   <si>
@@ -2000,14 +2069,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="H:MM\ AM/PM"/>
     <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="167" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="168" formatCode="@"/>
+    <numFmt numFmtId="167" formatCode="@"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2122,12 +2190,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
@@ -2143,7 +2205,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2178,6 +2240,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FFFF3333"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9900"/>
+        <bgColor rgb="FFFFC000"/>
       </patternFill>
     </fill>
     <fill>
@@ -2276,7 +2344,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2373,7 +2441,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2385,15 +2461,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2413,7 +2489,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2425,19 +2501,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2445,19 +2509,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2465,7 +2529,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2497,7 +2561,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2505,11 +2569,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2590,35 +2654,35 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U236"/>
+  <dimension ref="A1:U250"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A216" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B225" activeCellId="0" sqref="B225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="33.2064777327935"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.1376518218623"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.6761133603239"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="36.2834008097166"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.7813765182186"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="43.4898785425101"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="43.8097165991903"/>
     <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -4450,15 +4514,15 @@
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B183" s="4" t="s">
-        <v>103</v>
+        <v>166</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B184" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C184" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D184" s="7" t="s">
         <v>98</v>
@@ -4467,28 +4531,28 @@
         <v>1</v>
       </c>
       <c r="F184" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G184" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H184" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I184" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K184" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L184" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M184" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O184" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4551,7 +4615,7 @@
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B191" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4559,17 +4623,17 @@
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B193" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B194" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B195" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4591,18 +4655,18 @@
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B201" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B202" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4610,10 +4674,10 @@
         <v>1</v>
       </c>
       <c r="C203" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D203" s="9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4639,18 +4703,18 @@
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B209" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B210" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C210" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D210" s="10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4658,7 +4722,7 @@
         <v>1</v>
       </c>
       <c r="C211" s="10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D211" s="10" t="n">
         <v>65535</v>
@@ -4669,7 +4733,7 @@
         <v>2</v>
       </c>
       <c r="C212" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D212" s="10" t="n">
         <v>3394</v>
@@ -4680,124 +4744,356 @@
       <c r="C213" s="10"/>
       <c r="D213" s="10"/>
     </row>
+    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B214" s="0"/>
+    </row>
+    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B215" s="0"/>
+    </row>
+    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B216" s="16" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B217" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B218" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C218" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="D218" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="E218" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="F218" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="G218" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="H218" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="I218" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="J218" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="K218" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="L218" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="M218" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="N218" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="O218" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="P218" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q218" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="R218" s="24" t="s">
+        <v>208</v>
+      </c>
+    </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="0" t="s">
+      <c r="B219" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C219" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D219" s="10" t="n">
+        <v>65535</v>
+      </c>
+      <c r="E219" s="20"/>
+      <c r="F219" s="20"/>
+      <c r="G219" s="20"/>
+      <c r="H219" s="20"/>
+      <c r="I219" s="20"/>
+      <c r="J219" s="20"/>
+      <c r="K219" s="20"/>
+      <c r="L219" s="20"/>
+      <c r="M219" s="20"/>
+      <c r="N219" s="20"/>
+      <c r="O219" s="20"/>
+      <c r="P219" s="20"/>
+      <c r="Q219" s="20"/>
+      <c r="R219" s="20"/>
+    </row>
+    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B220" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C220" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="B219" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>192</v>
-      </c>
+      <c r="D220" s="10" t="n">
+        <v>3394</v>
+      </c>
+      <c r="E220" s="20"/>
+      <c r="F220" s="20"/>
+      <c r="G220" s="20"/>
+      <c r="H220" s="20"/>
+      <c r="I220" s="20"/>
+      <c r="J220" s="20"/>
+      <c r="K220" s="20"/>
+      <c r="L220" s="20"/>
+      <c r="M220" s="20"/>
+      <c r="N220" s="20"/>
+      <c r="O220" s="20"/>
+      <c r="P220" s="20"/>
+      <c r="Q220" s="20"/>
+      <c r="R220" s="20"/>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>193</v>
-      </c>
+      <c r="B221" s="6"/>
+      <c r="C221" s="10"/>
+      <c r="D221" s="10"/>
+      <c r="E221" s="20"/>
+      <c r="F221" s="20"/>
+      <c r="G221" s="20"/>
+      <c r="H221" s="20"/>
+      <c r="I221" s="20"/>
+      <c r="J221" s="20"/>
+      <c r="K221" s="20"/>
+      <c r="L221" s="20"/>
+      <c r="M221" s="20"/>
+      <c r="N221" s="20"/>
+      <c r="O221" s="20"/>
+      <c r="P221" s="20"/>
+      <c r="Q221" s="20"/>
+      <c r="R221" s="20"/>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B222" s="1" t="s">
-        <v>194</v>
-      </c>
+      <c r="B222" s="0"/>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B223" s="1" t="s">
-        <v>195</v>
+      <c r="B223" s="16" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B224" s="1" t="s">
-        <v>196</v>
+      <c r="B224" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E224" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="J224" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="K224" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="L224" s="0" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B225" s="1" t="s">
-        <v>197</v>
+      <c r="B225" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C225" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D225" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="E225" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="F225" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="G225" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="H225" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="I225" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="J225" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="K225" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="L225" s="25" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="B226" s="1" t="s">
-        <v>198</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="B226" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C226" s="20"/>
+      <c r="D226" s="20"/>
+      <c r="E226" s="20"/>
+      <c r="F226" s="20"/>
+      <c r="G226" s="20"/>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="B227" s="1" t="s">
-        <v>199</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="B227" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C227" s="20"/>
+      <c r="D227" s="20"/>
+      <c r="E227" s="20"/>
+      <c r="F227" s="20"/>
+      <c r="G227" s="20"/>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>200</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="B228" s="6"/>
+      <c r="C228" s="20"/>
+      <c r="D228" s="20"/>
+      <c r="E228" s="20"/>
+      <c r="F228" s="20"/>
+      <c r="G228" s="20"/>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="B229" s="1" t="s">
-        <v>201</v>
-      </c>
+      <c r="B229" s="0"/>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="B230" s="1" t="s">
-        <v>202</v>
-      </c>
+      <c r="B230" s="0"/>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B231" s="1" t="s">
-        <v>203</v>
-      </c>
+      <c r="B231" s="0"/>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="B232" s="1" t="s">
-        <v>204</v>
-      </c>
+      <c r="B232" s="0"/>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B233" s="1" t="s">
-        <v>205</v>
-      </c>
+      <c r="B233" s="0"/>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B234" s="1" t="s">
-        <v>206</v>
-      </c>
+      <c r="B234" s="0"/>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B235" s="1" t="s">
-        <v>207</v>
-      </c>
+      <c r="B235" s="0"/>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="0" t="s">
-        <v>190</v>
-      </c>
       <c r="B236" s="1" t="s">
-        <v>208</v>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B237" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B238" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B239" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B245" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B247" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B248" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B249" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -4825,21 +5121,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.4331983805668"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.914979757085"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.8380566801619"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3481781376518"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.8663967611336"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.7125506072875"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.4453441295547"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4848,100 +5144,100 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="24" t="s">
-        <v>210</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>211</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>211</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>211</v>
+      <c r="B9" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="5" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" s="26" t="n">
+      <c r="B11" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="28" t="n">
         <v>0</v>
       </c>
-      <c r="D11" s="26" t="n">
+      <c r="D11" s="28" t="n">
         <v>100</v>
       </c>
-      <c r="E11" s="26" t="n">
+      <c r="E11" s="28" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="26" t="n">
+      <c r="B12" s="28" t="n">
         <v>2</v>
       </c>
-      <c r="C12" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="26" t="n">
+      <c r="C12" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="28" t="n">
         <v>100</v>
       </c>
-      <c r="E12" s="26" t="n">
+      <c r="E12" s="28" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="26" t="n">
+      <c r="B13" s="28" t="n">
         <v>3</v>
       </c>
-      <c r="C13" s="26" t="n">
+      <c r="C13" s="28" t="n">
         <v>2</v>
       </c>
-      <c r="D13" s="26" t="n">
+      <c r="D13" s="28" t="n">
         <v>100</v>
       </c>
-      <c r="E13" s="26" t="n">
+      <c r="E13" s="28" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="26" t="n">
+      <c r="B14" s="28" t="n">
         <v>4</v>
       </c>
-      <c r="C14" s="26" t="n">
+      <c r="C14" s="28" t="n">
         <v>3</v>
       </c>
-      <c r="D14" s="26" t="n">
+      <c r="D14" s="28" t="n">
         <v>100</v>
       </c>
-      <c r="E14" s="26" t="n">
+      <c r="E14" s="28" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="26" t="n">
+      <c r="B15" s="28" t="n">
         <v>5</v>
       </c>
-      <c r="C15" s="26" t="n">
+      <c r="C15" s="28" t="n">
         <v>99</v>
       </c>
-      <c r="D15" s="26" t="n">
+      <c r="D15" s="28" t="n">
         <v>100</v>
       </c>
-      <c r="E15" s="26" t="n">
+      <c r="E15" s="28" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4951,96 +5247,96 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="24" t="s">
-        <v>216</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>217</v>
-      </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
+      <c r="B19" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>218</v>
+        <v>238</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>200</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" s="26" t="n">
+      <c r="B21" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="28" t="n">
         <v>101</v>
       </c>
-      <c r="D21" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="26" t="n">
+      <c r="D21" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="28" t="n">
         <v>130</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="26" t="n">
+      <c r="B22" s="28" t="n">
         <v>2</v>
       </c>
-      <c r="C22" s="26" t="n">
+      <c r="C22" s="28" t="n">
         <v>101</v>
       </c>
-      <c r="D22" s="26" t="n">
+      <c r="D22" s="28" t="n">
         <v>20</v>
       </c>
-      <c r="E22" s="26" t="n">
+      <c r="E22" s="28" t="n">
         <v>150</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="26" t="n">
+      <c r="B23" s="28" t="n">
         <v>3</v>
       </c>
-      <c r="C23" s="26" t="n">
+      <c r="C23" s="28" t="n">
         <v>102</v>
       </c>
-      <c r="D23" s="26" t="n">
+      <c r="D23" s="28" t="n">
         <v>25</v>
       </c>
-      <c r="E23" s="26" t="n">
+      <c r="E23" s="28" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="26" t="n">
+      <c r="B24" s="28" t="n">
         <v>4</v>
       </c>
-      <c r="C24" s="26" t="n">
+      <c r="C24" s="28" t="n">
         <v>102</v>
       </c>
-      <c r="D24" s="26" t="n">
+      <c r="D24" s="28" t="n">
         <v>82</v>
       </c>
-      <c r="E24" s="26" t="n">
+      <c r="E24" s="28" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="26" t="n">
+      <c r="B25" s="28" t="n">
         <v>5</v>
       </c>
-      <c r="C25" s="26" t="n">
+      <c r="C25" s="28" t="n">
         <v>102</v>
       </c>
-      <c r="D25" s="26" t="n">
+      <c r="D25" s="28" t="n">
         <v>44</v>
       </c>
-      <c r="E25" s="26" t="n">
+      <c r="E25" s="28" t="n">
         <v>150</v>
       </c>
     </row>
@@ -5050,114 +5346,114 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="5" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
+      <c r="B31" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="26" t="n">
+      <c r="B32" s="28" t="n">
         <v>2</v>
       </c>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="26"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="26" t="n">
+      <c r="B33" s="28" t="n">
         <v>3</v>
       </c>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="26" t="n">
+      <c r="B34" s="28" t="n">
         <v>4</v>
       </c>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="26" t="n">
+      <c r="B35" s="28" t="n">
         <v>5</v>
       </c>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="17" t="n">
@@ -5165,131 +5461,131 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
+      <c r="B40" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
       <c r="I40" s="0" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="C41" s="28" t="s">
-        <v>218</v>
+        <v>238</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>200</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>231</v>
+        <v>194</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="I41" s="28" t="s">
-        <v>234</v>
+        <v>197</v>
+      </c>
+      <c r="I41" s="30" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="C42" s="26" t="n">
+      <c r="B42" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" s="28" t="n">
         <v>101</v>
       </c>
-      <c r="D42" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="E42" s="26" t="n">
+      <c r="D42" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" s="28" t="n">
         <v>10</v>
       </c>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="26" t="n">
+      <c r="B43" s="28" t="n">
         <v>2</v>
       </c>
-      <c r="C43" s="26" t="n">
+      <c r="C43" s="28" t="n">
         <v>101</v>
       </c>
-      <c r="D43" s="26" t="n">
+      <c r="D43" s="28" t="n">
         <v>20</v>
       </c>
-      <c r="E43" s="26" t="n">
+      <c r="E43" s="28" t="n">
         <v>5</v>
       </c>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="26" t="n">
+      <c r="B44" s="28" t="n">
         <v>3</v>
       </c>
-      <c r="C44" s="26" t="n">
+      <c r="C44" s="28" t="n">
         <v>102</v>
       </c>
-      <c r="D44" s="26" t="n">
+      <c r="D44" s="28" t="n">
         <v>25</v>
       </c>
-      <c r="E44" s="26" t="n">
+      <c r="E44" s="28" t="n">
         <v>100</v>
       </c>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="26"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="26" t="n">
+      <c r="B45" s="28" t="n">
         <v>4</v>
       </c>
-      <c r="C45" s="26" t="n">
+      <c r="C45" s="28" t="n">
         <v>102</v>
       </c>
-      <c r="D45" s="26" t="n">
+      <c r="D45" s="28" t="n">
         <v>82</v>
       </c>
-      <c r="E45" s="26" t="n">
+      <c r="E45" s="28" t="n">
         <v>200</v>
       </c>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="26" t="n">
+      <c r="B46" s="28" t="n">
         <v>5</v>
       </c>
-      <c r="C46" s="26" t="n">
+      <c r="C46" s="28" t="n">
         <v>102</v>
       </c>
-      <c r="D46" s="26" t="n">
+      <c r="D46" s="28" t="n">
         <v>44</v>
       </c>
-      <c r="E46" s="26" t="n">
+      <c r="E46" s="28" t="n">
         <v>150</v>
       </c>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="17" t="n">
@@ -5297,73 +5593,73 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="29" t="s">
+      <c r="B50" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="E50" s="30"/>
-      <c r="F50" s="31" t="s">
-        <v>236</v>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="E50" s="32"/>
+      <c r="F50" s="33" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="32" t="s">
-        <v>237</v>
-      </c>
-      <c r="C51" s="33" t="s">
-        <v>167</v>
-      </c>
-      <c r="D51" s="34" t="s">
-        <v>238</v>
-      </c>
-      <c r="E51" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="F51" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="G51" s="33" t="s">
-        <v>241</v>
-      </c>
-      <c r="H51" s="33" t="s">
-        <v>242</v>
+      <c r="B51" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="C51" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="D51" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="E51" s="35" t="s">
+        <v>259</v>
+      </c>
+      <c r="F51" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="G51" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="H51" s="35" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="C52" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="D52" s="35"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="35"/>
+      <c r="B52" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="D52" s="37"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="37"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="33" t="n">
+      <c r="B53" s="35" t="n">
         <v>2</v>
       </c>
-      <c r="C53" s="35"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="35"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="35"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="37"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="33"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="35"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="37"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="17" t="n">
@@ -5371,14 +5667,14 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="24" t="s">
+      <c r="B57" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C57" s="25"/>
+      <c r="C57" s="27"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="5" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>3</v>
@@ -5388,69 +5684,69 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="26" t="n">
+      <c r="B59" s="28" t="n">
         <v>1</v>
       </c>
       <c r="C59" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="26" t="n">
+      <c r="B60" s="28" t="n">
         <v>2</v>
       </c>
       <c r="C60" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="26" t="n">
+      <c r="B61" s="28" t="n">
         <v>3</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="26" t="n">
+      <c r="B62" s="28" t="n">
         <v>4</v>
       </c>
       <c r="C62" s="9" t="s">
         <v>21</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="26" t="n">
+      <c r="B63" s="28" t="n">
         <v>5</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="26" t="n">
+      <c r="B64" s="28" t="n">
         <v>6</v>
       </c>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C66" s="36"/>
+      <c r="C66" s="38"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="17" t="n">
@@ -5458,26 +5754,26 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="C68" s="25"/>
-      <c r="E68" s="25" t="s">
-        <v>249</v>
-      </c>
-      <c r="G68" s="25" t="s">
-        <v>250</v>
+      <c r="B68" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="C68" s="27"/>
+      <c r="E68" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="G68" s="27" t="s">
+        <v>270</v>
       </c>
       <c r="H68" s="17" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="I68" s="17" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="5" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>3</v>
@@ -5486,492 +5782,520 @@
         <v>4</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="F69" s="28" t="s">
-        <v>253</v>
+        <v>272</v>
+      </c>
+      <c r="F69" s="30" t="s">
+        <v>273</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="26" t="n">
+      <c r="B70" s="28" t="n">
         <v>1</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="E70" s="26" t="s">
-        <v>258</v>
-      </c>
-      <c r="F70" s="37"/>
-      <c r="G70" s="38" t="s">
-        <v>259</v>
-      </c>
-      <c r="H70" s="39" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" s="39" t="b">
+        <v>277</v>
+      </c>
+      <c r="E70" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="F70" s="28"/>
+      <c r="G70" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="H70" s="22" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I70" s="22" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="26" t="n">
+      <c r="B71" s="28" t="n">
         <v>2</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="E71" s="26" t="s">
-        <v>261</v>
-      </c>
-      <c r="F71" s="37"/>
-      <c r="G71" s="38" t="s">
-        <v>262</v>
-      </c>
-      <c r="H71" s="39" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" s="39" t="b">
+        <v>277</v>
+      </c>
+      <c r="E71" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="F71" s="28"/>
+      <c r="G71" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="H71" s="22" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I71" s="22" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="26" t="n">
+      <c r="B72" s="28" t="n">
         <v>3</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="E72" s="26" t="s">
-        <v>264</v>
-      </c>
-      <c r="F72" s="37"/>
-      <c r="G72" s="38" t="s">
-        <v>262</v>
-      </c>
-      <c r="H72" s="39" t="b">
-        <v>1</v>
-      </c>
-      <c r="I72" s="39" t="b">
+        <v>277</v>
+      </c>
+      <c r="E72" s="28" t="s">
+        <v>284</v>
+      </c>
+      <c r="F72" s="28"/>
+      <c r="G72" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="H72" s="22" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I72" s="22" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="26" t="n">
+      <c r="B73" s="28" t="n">
         <v>4</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="E73" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F73" s="37"/>
-      <c r="G73" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="H73" s="39" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" s="39" t="b">
+        <v>277</v>
+      </c>
+      <c r="E73" s="28" t="s">
+        <v>286</v>
+      </c>
+      <c r="F73" s="28"/>
+      <c r="G73" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="H73" s="22" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I73" s="22" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="26" t="n">
+      <c r="B74" s="28" t="n">
         <v>5</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="E74" s="26" t="s">
-        <v>269</v>
-      </c>
-      <c r="F74" s="37"/>
-      <c r="G74" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="H74" s="39" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" s="39" t="b">
+        <v>277</v>
+      </c>
+      <c r="E74" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="F74" s="28"/>
+      <c r="G74" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="H74" s="22" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I74" s="22" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="26" t="n">
+      <c r="B75" s="28" t="n">
         <v>6</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="E75" s="26" t="s">
-        <v>272</v>
-      </c>
-      <c r="F75" s="37"/>
-      <c r="G75" s="37" t="s">
-        <v>273</v>
-      </c>
-      <c r="H75" s="39" t="b">
-        <v>1</v>
-      </c>
-      <c r="I75" s="39" t="b">
+        <v>277</v>
+      </c>
+      <c r="E75" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="F75" s="28"/>
+      <c r="G75" s="28" t="s">
+        <v>293</v>
+      </c>
+      <c r="H75" s="22" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I75" s="22" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="26" t="n">
+      <c r="B76" s="28" t="n">
         <v>7</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="E76" s="26" t="s">
-        <v>275</v>
-      </c>
-      <c r="F76" s="26"/>
-      <c r="G76" s="26" t="s">
-        <v>276</v>
-      </c>
-      <c r="H76" s="39" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" s="39" t="b">
+        <v>277</v>
+      </c>
+      <c r="E76" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="F76" s="28"/>
+      <c r="G76" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="H76" s="22" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I76" s="22" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="26" t="n">
+      <c r="B77" s="28" t="n">
         <v>8</v>
       </c>
       <c r="C77" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="D77" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="D77" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="E77" s="26" t="s">
-        <v>278</v>
-      </c>
-      <c r="F77" s="26"/>
-      <c r="G77" s="26" t="s">
-        <v>276</v>
-      </c>
-      <c r="H77" s="39"/>
-      <c r="I77" s="39"/>
+      <c r="E77" s="28" t="s">
+        <v>298</v>
+      </c>
+      <c r="F77" s="28"/>
+      <c r="G77" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="H77" s="22"/>
+      <c r="I77" s="22"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="26" t="n">
+      <c r="B78" s="28" t="n">
         <v>9</v>
       </c>
       <c r="C78" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="E78" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="F78" s="28"/>
+      <c r="G78" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="H78" s="22"/>
+      <c r="I78" s="22"/>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="28" t="n">
+        <v>10</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="E79" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="F79" s="28"/>
+      <c r="G79" s="28" t="s">
+        <v>303</v>
+      </c>
+      <c r="H79" s="22"/>
+      <c r="I79" s="22"/>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="28" t="n">
+        <v>11</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="E80" s="28" t="s">
+        <v>305</v>
+      </c>
+      <c r="F80" s="28"/>
+      <c r="G80" s="28" t="s">
+        <v>306</v>
+      </c>
+      <c r="H80" s="22"/>
+      <c r="I80" s="22"/>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B81" s="28" t="n">
+        <v>12</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="E81" s="28" t="s">
+        <v>308</v>
+      </c>
+      <c r="F81" s="28"/>
+      <c r="G81" s="28" t="s">
+        <v>303</v>
+      </c>
+      <c r="H81" s="22"/>
+      <c r="I81" s="22"/>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="28"/>
+      <c r="C82" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="D82" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="E82" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="F82" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="G82" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="D78" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="E78" s="26" t="s">
-        <v>280</v>
-      </c>
-      <c r="F78" s="26"/>
-      <c r="G78" s="26" t="s">
-        <v>267</v>
-      </c>
-      <c r="H78" s="39"/>
-      <c r="I78" s="39"/>
-    </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="26" t="n">
-        <v>10</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="E79" s="26" t="s">
-        <v>282</v>
-      </c>
-      <c r="F79" s="26"/>
-      <c r="G79" s="26" t="s">
-        <v>283</v>
-      </c>
-      <c r="H79" s="39"/>
-      <c r="I79" s="39"/>
-    </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="26" t="n">
-        <v>11</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="D80" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="E80" s="26" t="s">
-        <v>285</v>
-      </c>
-      <c r="F80" s="26"/>
-      <c r="G80" s="26" t="s">
-        <v>286</v>
-      </c>
-      <c r="H80" s="39"/>
-      <c r="I80" s="39"/>
-    </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="26" t="n">
-        <v>12</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="E81" s="26" t="s">
-        <v>288</v>
-      </c>
-      <c r="F81" s="26"/>
-      <c r="G81" s="26" t="s">
-        <v>283</v>
-      </c>
-      <c r="H81" s="39"/>
-      <c r="I81" s="39"/>
-    </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="26"/>
-      <c r="C82" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="D82" s="26" t="s">
-        <v>290</v>
-      </c>
-      <c r="E82" s="26" t="s">
-        <v>291</v>
-      </c>
-      <c r="F82" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="G82" s="38" t="s">
-        <v>259</v>
-      </c>
-      <c r="H82" s="39" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" s="39" t="b">
+      <c r="H82" s="22" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I82" s="22" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="26"/>
+      <c r="B83" s="28"/>
       <c r="C83" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="D83" s="26" t="s">
-        <v>290</v>
-      </c>
-      <c r="E83" s="26" t="s">
-        <v>293</v>
-      </c>
-      <c r="F83" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="G83" s="38" t="s">
-        <v>259</v>
-      </c>
-      <c r="H83" s="39" t="b">
-        <v>1</v>
-      </c>
-      <c r="I83" s="39" t="b">
+        <v>312</v>
+      </c>
+      <c r="D83" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="E83" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="F83" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="G83" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="H83" s="22" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I83" s="22" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="26"/>
+      <c r="B84" s="28"/>
       <c r="C84" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="D84" s="26" t="s">
-        <v>290</v>
-      </c>
-      <c r="E84" s="26" t="s">
-        <v>295</v>
-      </c>
-      <c r="F84" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="G84" s="38" t="s">
-        <v>259</v>
-      </c>
-      <c r="H84" s="39" t="b">
-        <v>1</v>
-      </c>
-      <c r="I84" s="39" t="b">
+        <v>314</v>
+      </c>
+      <c r="D84" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="E84" s="28" t="s">
+        <v>315</v>
+      </c>
+      <c r="F84" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="G84" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="H84" s="22" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I84" s="22" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="26"/>
+      <c r="B85" s="28"/>
       <c r="C85" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="D85" s="26" t="s">
-        <v>290</v>
-      </c>
-      <c r="E85" s="26" t="s">
-        <v>297</v>
-      </c>
-      <c r="F85" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="G85" s="38" t="s">
-        <v>259</v>
-      </c>
-      <c r="H85" s="39" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" s="39" t="b">
+        <v>316</v>
+      </c>
+      <c r="D85" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="E85" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="F85" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="G85" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="H85" s="22" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I85" s="22" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="26"/>
+      <c r="B86" s="28"/>
       <c r="C86" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="D86" s="26" t="s">
-        <v>290</v>
-      </c>
-      <c r="E86" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="F86" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="G86" s="38" t="s">
-        <v>259</v>
-      </c>
-      <c r="H86" s="39" t="b">
-        <v>1</v>
-      </c>
-      <c r="I86" s="39" t="b">
+        <v>318</v>
+      </c>
+      <c r="D86" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="E86" s="28" t="s">
+        <v>319</v>
+      </c>
+      <c r="F86" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="G86" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="H86" s="22" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I86" s="22" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="26"/>
+      <c r="B87" s="28"/>
       <c r="C87" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="D87" s="26" t="s">
-        <v>290</v>
-      </c>
-      <c r="E87" s="26" t="s">
-        <v>301</v>
-      </c>
-      <c r="F87" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="G87" s="38" t="s">
-        <v>259</v>
-      </c>
-      <c r="H87" s="39" t="b">
-        <v>1</v>
-      </c>
-      <c r="I87" s="39" t="b">
+        <v>320</v>
+      </c>
+      <c r="D87" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="E87" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="F87" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="G87" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="H87" s="22" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I87" s="22" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="26"/>
+      <c r="B88" s="28"/>
       <c r="C88" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="D88" s="26" t="s">
-        <v>290</v>
-      </c>
-      <c r="E88" s="26" t="s">
-        <v>303</v>
-      </c>
-      <c r="F88" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G88" s="38" t="s">
-        <v>304</v>
-      </c>
-      <c r="H88" s="39" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" s="39" t="b">
+        <v>322</v>
+      </c>
+      <c r="D88" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="E88" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="F88" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="G88" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="H88" s="22" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I88" s="22" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="26"/>
+      <c r="B89" s="28"/>
       <c r="C89" s="9"/>
-      <c r="D89" s="26"/>
-      <c r="E89" s="26"/>
-      <c r="F89" s="26"/>
-      <c r="G89" s="26"/>
-      <c r="H89" s="39"/>
-      <c r="I89" s="39"/>
+      <c r="D89" s="28"/>
+      <c r="E89" s="28"/>
+      <c r="F89" s="28"/>
+      <c r="G89" s="28"/>
+      <c r="H89" s="22"/>
+      <c r="I89" s="22"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="26"/>
+      <c r="B90" s="28"/>
       <c r="C90" s="9"/>
-      <c r="D90" s="26"/>
-      <c r="E90" s="26"/>
-      <c r="F90" s="26"/>
-      <c r="G90" s="26"/>
-      <c r="H90" s="39"/>
-      <c r="I90" s="39"/>
+      <c r="D90" s="28"/>
+      <c r="E90" s="28"/>
+      <c r="F90" s="28"/>
+      <c r="G90" s="28"/>
+      <c r="H90" s="22"/>
+      <c r="I90" s="22"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="26"/>
+      <c r="B91" s="28"/>
       <c r="C91" s="9"/>
-      <c r="D91" s="26"/>
-      <c r="E91" s="26"/>
-      <c r="F91" s="26"/>
-      <c r="G91" s="26"/>
-      <c r="H91" s="39"/>
-      <c r="I91" s="39"/>
+      <c r="D91" s="28"/>
+      <c r="E91" s="28"/>
+      <c r="F91" s="28"/>
+      <c r="G91" s="28"/>
+      <c r="H91" s="22"/>
+      <c r="I91" s="22"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C92" s="36"/>
+      <c r="C92" s="38"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C93" s="36"/>
+      <c r="C93" s="38"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="1" t="s">
@@ -5980,182 +6304,182 @@
       <c r="C94" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E94" s="26" t="s">
-        <v>305</v>
-      </c>
-      <c r="F94" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="G94" s="26" t="s">
-        <v>253</v>
+      <c r="E94" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="F94" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="G94" s="28" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E95" s="26" t="s">
-        <v>258</v>
+      <c r="E95" s="28" t="s">
+        <v>278</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="G95" s="26"/>
+        <v>276</v>
+      </c>
+      <c r="G95" s="28"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="0" t="s">
         <v>14</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>306</v>
-      </c>
-      <c r="E96" s="26" t="s">
-        <v>261</v>
+        <v>326</v>
+      </c>
+      <c r="E96" s="28" t="s">
+        <v>281</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="G96" s="26"/>
+        <v>280</v>
+      </c>
+      <c r="G96" s="28"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C97" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="E97" s="26" t="s">
-        <v>264</v>
+        <v>327</v>
+      </c>
+      <c r="E97" s="28" t="s">
+        <v>284</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="G97" s="26"/>
+        <v>283</v>
+      </c>
+      <c r="G97" s="28"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E98" s="26" t="s">
-        <v>266</v>
+      <c r="E98" s="28" t="s">
+        <v>286</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="G98" s="26"/>
+        <v>285</v>
+      </c>
+      <c r="G98" s="28"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E99" s="26" t="s">
-        <v>269</v>
+      <c r="E99" s="28" t="s">
+        <v>289</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="G99" s="26"/>
+        <v>288</v>
+      </c>
+      <c r="G99" s="28"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="E100" s="26" t="s">
-        <v>272</v>
+        <v>328</v>
+      </c>
+      <c r="E100" s="28" t="s">
+        <v>292</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="G100" s="26"/>
+        <v>291</v>
+      </c>
+      <c r="G100" s="28"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E101" s="26" t="s">
-        <v>275</v>
+      <c r="E101" s="28" t="s">
+        <v>295</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="G101" s="26"/>
+        <v>294</v>
+      </c>
+      <c r="G101" s="28"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E102" s="26" t="s">
-        <v>278</v>
+      <c r="E102" s="28" t="s">
+        <v>298</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="G102" s="26"/>
+        <v>297</v>
+      </c>
+      <c r="G102" s="28"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E103" s="26" t="s">
-        <v>280</v>
+      <c r="E103" s="28" t="s">
+        <v>300</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="G103" s="26"/>
+        <v>299</v>
+      </c>
+      <c r="G103" s="28"/>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="0" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="E104" s="26" t="s">
-        <v>282</v>
+        <v>329</v>
+      </c>
+      <c r="E104" s="28" t="s">
+        <v>302</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="G104" s="26"/>
+        <v>301</v>
+      </c>
+      <c r="G104" s="28"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E105" s="26" t="s">
-        <v>285</v>
+      <c r="E105" s="28" t="s">
+        <v>305</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="G105" s="26"/>
+        <v>304</v>
+      </c>
+      <c r="G105" s="28"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="0" t="s">
         <v>21</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>310</v>
-      </c>
-      <c r="E106" s="26" t="s">
-        <v>288</v>
+        <v>330</v>
+      </c>
+      <c r="E106" s="28" t="s">
+        <v>308</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="G106" s="26"/>
+        <v>307</v>
+      </c>
+      <c r="G106" s="28"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="0" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C109" s="0" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="0" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="0" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="0" t="s">
-        <v>316</v>
+        <v>336</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="0" t="s">
-        <v>317</v>
+        <v>337</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6175,12 +6499,12 @@
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="0" t="s">
-        <v>318</v>
+        <v>338</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="0" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
     </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -6212,39 +6536,39 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.2064777327935"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.246963562753"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.5303643724696"/>
     <col collapsed="false" hidden="false" max="14" min="10" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="17" min="16" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="28.4939271255061"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.8178137651822"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="43.5991902834008"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="43.919028340081"/>
     <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
-        <v>320</v>
+        <v>340</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="40" t="n">
+      <c r="B5" s="39" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="B6" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="B6" s="40" t="s">
         <v>105</v>
       </c>
       <c r="C6" s="17"/>
@@ -6253,8 +6577,8 @@
       <c r="F6" s="17"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="32" t="s">
-        <v>321</v>
+      <c r="B7" s="34" t="s">
+        <v>341</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>3</v>
@@ -6266,11 +6590,11 @@
         <v>108</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="33" t="n">
+      <c r="B8" s="35" t="n">
         <v>1</v>
       </c>
       <c r="C8" s="10"/>
@@ -6279,7 +6603,7 @@
       <c r="F8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="33" t="n">
+      <c r="B9" s="35" t="n">
         <v>2</v>
       </c>
       <c r="C9" s="10"/>
@@ -6288,37 +6612,37 @@
       <c r="F9" s="10"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="40" t="n">
+      <c r="B12" s="39" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="B13" s="41" t="s">
-        <v>323</v>
+        <v>212</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>343</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="32" t="s">
-        <v>324</v>
+      <c r="B14" s="34" t="s">
+        <v>344</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>326</v>
+        <v>346</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="33" t="n">
+      <c r="B15" s="35" t="n">
         <v>1</v>
       </c>
       <c r="C15" s="10"/>
@@ -6326,7 +6650,7 @@
       <c r="E15" s="10"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="33" t="n">
+      <c r="B16" s="35" t="n">
         <v>2</v>
       </c>
       <c r="C16" s="10"/>
@@ -6334,118 +6658,118 @@
       <c r="E16" s="10"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="40" t="n">
+      <c r="B19" s="39" t="n">
         <v>3</v>
       </c>
       <c r="F19" s="17"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="B20" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="B20" s="40" t="s">
         <v>145</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="32" t="s">
-        <v>324</v>
+      <c r="B21" s="34" t="s">
+        <v>344</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="42" t="s">
-        <v>323</v>
+      <c r="D21" s="41" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="33" t="n">
+      <c r="B22" s="35" t="n">
         <v>1</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="33" t="n">
+      <c r="B23" s="35" t="n">
         <v>2</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="40" t="n">
+      <c r="B26" s="39" t="n">
         <v>4</v>
       </c>
       <c r="E26" s="17"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="B27" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="B27" s="40" t="s">
         <v>142</v>
       </c>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="34" t="s">
         <v>143</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="42" t="s">
+      <c r="D28" s="41" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="33" t="n">
+      <c r="B29" s="35" t="n">
         <v>1</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="33" t="n">
+      <c r="B30" s="35" t="n">
         <v>2</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="40" t="n">
+      <c r="B32" s="39" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="B33" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="B33" s="40" t="s">
         <v>135</v>
       </c>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="32" t="s">
-        <v>327</v>
+      <c r="B34" s="34" t="s">
+        <v>347</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>119</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="E34" s="42" t="s">
+        <v>348</v>
+      </c>
+      <c r="E34" s="41" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="33" t="n">
+      <c r="B35" s="35" t="n">
         <v>1</v>
       </c>
       <c r="C35" s="10"/>
@@ -6453,7 +6777,7 @@
       <c r="E35" s="10"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="33" t="n">
+      <c r="B36" s="35" t="n">
         <v>2</v>
       </c>
       <c r="C36" s="10"/>
@@ -6461,16 +6785,16 @@
       <c r="E36" s="10"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="40" t="n">
+      <c r="B38" s="39" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="B39" s="41" t="s">
-        <v>329</v>
+        <v>212</v>
+      </c>
+      <c r="B39" s="40" t="s">
+        <v>349</v>
       </c>
       <c r="C39" s="17"/>
       <c r="D39" s="17"/>
@@ -6478,8 +6802,8 @@
       <c r="F39" s="17"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="32" t="s">
-        <v>330</v>
+      <c r="B40" s="34" t="s">
+        <v>350</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>3</v>
@@ -6495,7 +6819,7 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="33" t="n">
+      <c r="B41" s="35" t="n">
         <v>1</v>
       </c>
       <c r="C41" s="10"/>
@@ -6504,7 +6828,7 @@
       <c r="F41" s="10"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="33" t="n">
+      <c r="B42" s="35" t="n">
         <v>2</v>
       </c>
       <c r="C42" s="10"/>
@@ -6513,23 +6837,23 @@
       <c r="F42" s="10"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="40" t="n">
+      <c r="B44" s="39" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="B45" s="41" t="s">
-        <v>331</v>
+        <v>212</v>
+      </c>
+      <c r="B45" s="40" t="s">
+        <v>351</v>
       </c>
       <c r="C45" s="17"/>
       <c r="D45" s="17"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="32" t="s">
-        <v>332</v>
+      <c r="B46" s="34" t="s">
+        <v>352</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>3</v>
@@ -6545,7 +6869,7 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="33" t="n">
+      <c r="B47" s="35" t="n">
         <v>1</v>
       </c>
       <c r="C47" s="10"/>
@@ -6554,7 +6878,7 @@
       <c r="F47" s="10"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="33" t="n">
+      <c r="B48" s="35" t="n">
         <v>2</v>
       </c>
       <c r="C48" s="10"/>
@@ -6563,292 +6887,292 @@
       <c r="F48" s="10"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="40" t="n">
+      <c r="B51" s="39" t="n">
         <v>8</v>
       </c>
-      <c r="C51" s="30"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="B52" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="B52" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="C52" s="30"/>
-      <c r="D52" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="E52" s="30"/>
-      <c r="F52" s="30"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="32" t="s">
-        <v>237</v>
-      </c>
-      <c r="C53" s="33" t="s">
-        <v>167</v>
-      </c>
-      <c r="D53" s="34" t="s">
-        <v>238</v>
-      </c>
-      <c r="E53" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="F53" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="G53" s="33" t="s">
-        <v>241</v>
-      </c>
-      <c r="H53" s="33" t="s">
-        <v>242</v>
+      <c r="B53" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="C53" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="D53" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="E53" s="35" t="s">
+        <v>259</v>
+      </c>
+      <c r="F53" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="G53" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="H53" s="35" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="C54" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="D54" s="35"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="35"/>
+      <c r="B54" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="D54" s="37"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="37"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="33" t="n">
+      <c r="B55" s="35" t="n">
         <v>2</v>
       </c>
-      <c r="C55" s="35"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="35"/>
-      <c r="G55" s="35"/>
-      <c r="H55" s="35"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="37"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="40" t="n">
+      <c r="B58" s="39" t="n">
         <v>9</v>
       </c>
-      <c r="C58" s="30"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="30"/>
-      <c r="F58" s="30"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="B59" s="41" t="s">
-        <v>333</v>
-      </c>
-      <c r="C59" s="30"/>
-      <c r="D59" s="30"/>
-      <c r="E59" s="30"/>
-      <c r="F59" s="30"/>
+        <v>212</v>
+      </c>
+      <c r="B59" s="40" t="s">
+        <v>353</v>
+      </c>
+      <c r="C59" s="32"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="32"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="32" t="s">
-        <v>334</v>
-      </c>
-      <c r="C60" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="D60" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="E60" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="F60" s="33" t="s">
-        <v>335</v>
-      </c>
-      <c r="G60" s="33" t="s">
-        <v>336</v>
-      </c>
-      <c r="H60" s="33" t="s">
-        <v>337</v>
-      </c>
-      <c r="I60" s="33" t="s">
-        <v>338</v>
-      </c>
-      <c r="J60" s="33" t="s">
-        <v>339</v>
-      </c>
-      <c r="K60" s="33" t="s">
-        <v>340</v>
-      </c>
-      <c r="L60" s="43" t="s">
+      <c r="B60" s="34" t="s">
+        <v>354</v>
+      </c>
+      <c r="C60" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="D60" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="E60" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="F60" s="35" t="s">
+        <v>355</v>
+      </c>
+      <c r="G60" s="35" t="s">
+        <v>356</v>
+      </c>
+      <c r="H60" s="35" t="s">
+        <v>357</v>
+      </c>
+      <c r="I60" s="35" t="s">
+        <v>358</v>
+      </c>
+      <c r="J60" s="35" t="s">
+        <v>359</v>
+      </c>
+      <c r="K60" s="35" t="s">
+        <v>360</v>
+      </c>
+      <c r="L60" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="M60" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="N60" s="33" t="s">
-        <v>220</v>
-      </c>
-      <c r="O60" s="33" t="s">
-        <v>341</v>
+      <c r="M60" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="N60" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="O60" s="35" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="C61" s="35"/>
-      <c r="D61" s="35"/>
-      <c r="E61" s="35"/>
-      <c r="F61" s="35"/>
-      <c r="G61" s="35"/>
-      <c r="H61" s="33"/>
-      <c r="I61" s="33"/>
-      <c r="J61" s="33"/>
-      <c r="K61" s="33"/>
-      <c r="L61" s="33"/>
-      <c r="M61" s="33"/>
-      <c r="N61" s="33"/>
-      <c r="O61" s="33"/>
+      <c r="B61" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C61" s="37"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="35"/>
+      <c r="I61" s="35"/>
+      <c r="J61" s="35"/>
+      <c r="K61" s="35"/>
+      <c r="L61" s="35"/>
+      <c r="M61" s="35"/>
+      <c r="N61" s="35"/>
+      <c r="O61" s="35"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="33" t="n">
+      <c r="B62" s="35" t="n">
         <v>2</v>
       </c>
-      <c r="C62" s="35"/>
-      <c r="D62" s="35"/>
-      <c r="E62" s="35"/>
-      <c r="F62" s="35"/>
-      <c r="G62" s="35"/>
-      <c r="H62" s="33"/>
-      <c r="I62" s="33"/>
-      <c r="J62" s="33"/>
-      <c r="K62" s="33"/>
-      <c r="L62" s="33"/>
-      <c r="M62" s="33"/>
-      <c r="N62" s="33"/>
-      <c r="O62" s="33"/>
+      <c r="C62" s="37"/>
+      <c r="D62" s="37"/>
+      <c r="E62" s="37"/>
+      <c r="F62" s="37"/>
+      <c r="G62" s="37"/>
+      <c r="H62" s="35"/>
+      <c r="I62" s="35"/>
+      <c r="J62" s="35"/>
+      <c r="K62" s="35"/>
+      <c r="L62" s="35"/>
+      <c r="M62" s="35"/>
+      <c r="N62" s="35"/>
+      <c r="O62" s="35"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="40" t="n">
+      <c r="B65" s="39" t="n">
         <v>10</v>
       </c>
-      <c r="C65" s="30"/>
-      <c r="D65" s="30"/>
-      <c r="E65" s="30"/>
-      <c r="F65" s="30"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="B66" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="C66" s="30"/>
-      <c r="D66" s="30"/>
-      <c r="E66" s="30"/>
-      <c r="F66" s="30"/>
+        <v>212</v>
+      </c>
+      <c r="B66" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" s="32"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="32"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="32" t="s">
+      <c r="B67" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C67" s="33" t="s">
-        <v>342</v>
-      </c>
-      <c r="D67" s="33" t="s">
-        <v>343</v>
+      <c r="C67" s="35" t="s">
+        <v>362</v>
+      </c>
+      <c r="D67" s="35" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="C68" s="35"/>
-      <c r="D68" s="35"/>
+      <c r="B68" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C68" s="37"/>
+      <c r="D68" s="37"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="33" t="n">
+      <c r="B69" s="35" t="n">
         <v>2</v>
       </c>
-      <c r="C69" s="35"/>
-      <c r="D69" s="35"/>
+      <c r="C69" s="37"/>
+      <c r="D69" s="37"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="40" t="n">
+      <c r="B72" s="39" t="n">
         <v>11</v>
       </c>
-      <c r="C72" s="30"/>
-      <c r="D72" s="30"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="32"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="B73" s="41" t="s">
-        <v>344</v>
-      </c>
-      <c r="C73" s="30"/>
-      <c r="D73" s="30"/>
+        <v>212</v>
+      </c>
+      <c r="B73" s="40" t="s">
+        <v>364</v>
+      </c>
+      <c r="C73" s="32"/>
+      <c r="D73" s="32"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="32" t="s">
-        <v>345</v>
-      </c>
-      <c r="C74" s="33" t="s">
-        <v>346</v>
-      </c>
-      <c r="D74" s="33" t="s">
-        <v>347</v>
-      </c>
-      <c r="E74" s="33" t="s">
-        <v>348</v>
-      </c>
-      <c r="F74" s="33" t="s">
-        <v>349</v>
-      </c>
-      <c r="G74" s="33" t="s">
-        <v>350</v>
+      <c r="B74" s="34" t="s">
+        <v>365</v>
+      </c>
+      <c r="C74" s="35" t="s">
+        <v>366</v>
+      </c>
+      <c r="D74" s="35" t="s">
+        <v>367</v>
+      </c>
+      <c r="E74" s="35" t="s">
+        <v>368</v>
+      </c>
+      <c r="F74" s="35" t="s">
+        <v>369</v>
+      </c>
+      <c r="G74" s="35" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="C75" s="44" t="s">
-        <v>351</v>
-      </c>
-      <c r="D75" s="44" t="n">
+      <c r="B75" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C75" s="43" t="s">
+        <v>371</v>
+      </c>
+      <c r="D75" s="43" t="n">
         <v>502</v>
       </c>
-      <c r="E75" s="44" t="n">
+      <c r="E75" s="43" t="n">
         <v>57652240</v>
       </c>
-      <c r="F75" s="44" t="n">
+      <c r="F75" s="43" t="n">
         <v>127129</v>
       </c>
-      <c r="G75" s="44" t="s">
-        <v>352</v>
+      <c r="G75" s="43" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="33" t="n">
+      <c r="B76" s="35" t="n">
         <v>2</v>
       </c>
-      <c r="C76" s="44"/>
-      <c r="D76" s="44"/>
-      <c r="E76" s="44"/>
-      <c r="F76" s="44"/>
-      <c r="G76" s="44"/>
+      <c r="C76" s="43"/>
+      <c r="D76" s="43"/>
+      <c r="E76" s="43"/>
+      <c r="F76" s="43"/>
+      <c r="G76" s="43"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>353</v>
+        <v>373</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6857,11 +7181,11 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="45" t="s">
+      <c r="B81" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="D81" s="46" t="s">
-        <v>354</v>
+      <c r="D81" s="45" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6871,20 +7195,20 @@
       <c r="C82" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D82" s="33" t="s">
+      <c r="D82" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="E82" s="33" t="s">
-        <v>355</v>
-      </c>
-      <c r="F82" s="33" t="s">
+      <c r="E82" s="35" t="s">
+        <v>375</v>
+      </c>
+      <c r="F82" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="G82" s="33" t="s">
+      <c r="G82" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="H82" s="33" t="s">
-        <v>328</v>
+      <c r="H82" s="35" t="s">
+        <v>348</v>
       </c>
       <c r="I82" s="7" t="s">
         <v>144</v>
@@ -6907,7 +7231,7 @@
         <v>1</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>356</v>
+        <v>376</v>
       </c>
       <c r="F83" s="10"/>
       <c r="G83" s="10"/>
@@ -6919,13 +7243,13 @@
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="6"/>
       <c r="C84" s="10" t="s">
-        <v>357</v>
+        <v>377</v>
       </c>
       <c r="D84" s="10" t="n">
         <v>1</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>358</v>
+        <v>378</v>
       </c>
       <c r="F84" s="10"/>
       <c r="G84" s="10"/>
@@ -6937,13 +7261,13 @@
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="6"/>
       <c r="C85" s="10" t="s">
-        <v>357</v>
+        <v>377</v>
       </c>
       <c r="D85" s="10" t="n">
         <v>2</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="F85" s="10"/>
       <c r="G85" s="10"/>
@@ -6958,7 +7282,7 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="24" t="s">
+      <c r="B88" s="26" t="s">
         <v>98</v>
       </c>
     </row>
@@ -6975,11 +7299,11 @@
       <c r="E89" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F89" s="47" t="s">
+      <c r="F89" s="46" t="s">
         <v>103</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6994,21 +7318,21 @@
         <v>1</v>
       </c>
       <c r="E90" s="10"/>
-      <c r="F90" s="48"/>
+      <c r="F90" s="47"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="6"/>
       <c r="C91" s="10"/>
       <c r="D91" s="10"/>
       <c r="E91" s="10"/>
-      <c r="F91" s="48"/>
+      <c r="F91" s="47"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="6"/>
       <c r="C92" s="10"/>
       <c r="D92" s="10"/>
       <c r="E92" s="10"/>
-      <c r="F92" s="48"/>
+      <c r="F92" s="47"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="17" t="n">
@@ -7016,10 +7340,10 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="24" t="s">
+      <c r="B96" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="R96" s="49" t="s">
+      <c r="R96" s="48" t="s">
         <v>102</v>
       </c>
       <c r="U96" s="0" t="s">
@@ -7076,7 +7400,7 @@
         <v>78</v>
       </c>
       <c r="R97" s="7" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="S97" s="6" t="s">
         <v>80</v>
@@ -7162,7 +7486,7 @@
       <c r="T99" s="10"/>
       <c r="U99" s="10"/>
     </row>
-    <row r="101" s="50" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" s="49" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="17" t="n">
         <v>15</v>
       </c>
@@ -7171,29 +7495,26 @@
       <c r="E101" s="0"/>
       <c r="F101" s="0"/>
     </row>
-    <row r="102" s="50" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="45" t="s">
-        <v>362</v>
-      </c>
-      <c r="C102" s="0"/>
-      <c r="D102" s="0"/>
-      <c r="E102" s="0"/>
-      <c r="F102" s="0"/>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="49"/>
+      <c r="B102" s="44" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="50"/>
+      <c r="A103" s="49"/>
       <c r="B103" s="5" t="s">
-        <v>363</v>
+        <v>383</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>124</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>364</v>
+        <v>384</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="50"/>
+      <c r="A104" s="49"/>
       <c r="B104" s="6" t="n">
         <v>1</v>
       </c>
@@ -7201,11 +7522,11 @@
         <v>1</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>365</v>
+        <v>385</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="50"/>
+      <c r="A105" s="49"/>
       <c r="B105" s="6" t="n">
         <v>2</v>
       </c>
@@ -7213,58 +7534,58 @@
         <v>2</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>366</v>
+        <v>386</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="50"/>
+      <c r="A106" s="49"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="50"/>
+      <c r="A107" s="49"/>
       <c r="B107" s="17" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="50"/>
-      <c r="B108" s="45" t="s">
-        <v>367</v>
+      <c r="A108" s="49"/>
+      <c r="B108" s="44" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="50"/>
+      <c r="A109" s="49"/>
       <c r="B109" s="5" t="s">
-        <v>368</v>
+        <v>388</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>369</v>
+        <v>389</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="50"/>
+      <c r="A110" s="49"/>
       <c r="B110" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>370</v>
+        <v>390</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="50"/>
+      <c r="A111" s="49"/>
       <c r="B111" s="6" t="n">
         <v>2</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>371</v>
+        <v>391</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="50"/>
+      <c r="A112" s="49"/>
       <c r="B112" s="6"/>
       <c r="C112" s="10"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="50"/>
+      <c r="A113" s="49"/>
       <c r="B113" s="6"/>
       <c r="C113" s="10"/>
     </row>
@@ -7274,22 +7595,22 @@
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B116" s="24" t="s">
-        <v>372</v>
-      </c>
-      <c r="F116" s="51" t="s">
-        <v>373</v>
-      </c>
-      <c r="G116" s="51" t="s">
-        <v>374</v>
+      <c r="B116" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="F116" s="50" t="s">
+        <v>393</v>
+      </c>
+      <c r="G116" s="50" t="s">
+        <v>394</v>
       </c>
       <c r="J116" s="0" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="5" t="s">
-        <v>376</v>
+        <v>396</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>3</v>
@@ -7301,22 +7622,22 @@
         <v>108</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>377</v>
+        <v>397</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="H117" s="6" t="s">
-        <v>379</v>
+        <v>399</v>
       </c>
       <c r="I117" s="6" t="s">
         <v>102</v>
       </c>
       <c r="J117" s="6" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="K117" s="0" t="s">
-        <v>380</v>
+        <v>400</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7329,17 +7650,17 @@
       <c r="F118" s="10"/>
       <c r="G118" s="10"/>
       <c r="H118" s="10" t="s">
-        <v>381</v>
+        <v>401</v>
       </c>
       <c r="I118" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="J118" s="52" t="n">
+        <v>402</v>
+      </c>
+      <c r="J118" s="51" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="K118" s="0" t="s">
-        <v>383</v>
+        <v>403</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7355,7 +7676,7 @@
         <v>121</v>
       </c>
       <c r="I119" s="10" t="s">
-        <v>382</v>
+        <v>402</v>
       </c>
       <c r="J119" s="10"/>
     </row>
@@ -7367,10 +7688,10 @@
       <c r="F120" s="6"/>
       <c r="G120" s="6"/>
       <c r="H120" s="10" t="s">
-        <v>384</v>
+        <v>404</v>
       </c>
       <c r="I120" s="10" t="s">
-        <v>385</v>
+        <v>405</v>
       </c>
       <c r="J120" s="6"/>
     </row>
@@ -7424,19 +7745,19 @@
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B128" s="24" t="s">
-        <v>386</v>
+      <c r="B128" s="26" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="5" t="s">
-        <v>387</v>
+        <v>407</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>379</v>
+        <v>399</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>364</v>
+        <v>384</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7444,10 +7765,10 @@
         <v>1</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>388</v>
+        <v>408</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>389</v>
+        <v>409</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7455,10 +7776,10 @@
         <v>2</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>391</v>
+        <v>411</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7466,10 +7787,10 @@
         <v>3</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>392</v>
+        <v>412</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>393</v>
+        <v>413</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7477,34 +7798,34 @@
         <v>4</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>394</v>
+        <v>414</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>394</v>
+        <v>414</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B135" s="53" t="n">
+      <c r="B135" s="52" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B136" s="24" t="s">
-        <v>395</v>
+      <c r="B136" s="26" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="5" t="s">
-        <v>396</v>
+        <v>416</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>377</v>
+        <v>397</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>397</v>
+        <v>417</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7521,57 +7842,57 @@
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B146" s="45" t="s">
-        <v>398</v>
-      </c>
-      <c r="F146" s="51" t="s">
-        <v>373</v>
+      <c r="B146" s="44" t="s">
+        <v>418</v>
+      </c>
+      <c r="F146" s="50" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B147" s="45" t="s">
-        <v>399</v>
+      <c r="B147" s="44" t="s">
+        <v>419</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>401</v>
+        <v>421</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>402</v>
+        <v>422</v>
       </c>
       <c r="F147" s="6" t="s">
-        <v>403</v>
+        <v>423</v>
       </c>
       <c r="G147" s="6" t="s">
-        <v>404</v>
+        <v>424</v>
       </c>
       <c r="H147" s="6" t="s">
-        <v>405</v>
+        <v>425</v>
       </c>
       <c r="I147" s="6" t="s">
-        <v>406</v>
+        <v>426</v>
       </c>
       <c r="J147" s="6" t="s">
-        <v>407</v>
+        <v>427</v>
       </c>
       <c r="K147" s="6" t="s">
-        <v>408</v>
+        <v>428</v>
       </c>
       <c r="L147" s="6" t="s">
-        <v>409</v>
+        <v>429</v>
       </c>
       <c r="M147" s="6" t="s">
-        <v>410</v>
+        <v>430</v>
       </c>
       <c r="N147" s="6" t="s">
-        <v>411</v>
+        <v>431</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="229.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B148" s="54" t="s">
-        <v>412</v>
+      <c r="B148" s="53" t="s">
+        <v>432</v>
       </c>
       <c r="C148" s="10"/>
       <c r="D148" s="10"/>
@@ -7587,78 +7908,78 @@
       <c r="N148" s="10"/>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B150" s="55" t="s">
-        <v>413</v>
+      <c r="B150" s="54" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B151" s="0" t="s">
-        <v>414</v>
+        <v>434</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B152" s="0" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B153" s="0" t="s">
-        <v>416</v>
+        <v>436</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B154" s="0" t="s">
-        <v>417</v>
+        <v>437</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B155" s="0" t="s">
-        <v>418</v>
+        <v>438</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B156" s="0" t="s">
-        <v>419</v>
+        <v>439</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B157" s="0" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B158" s="0" t="s">
-        <v>421</v>
+        <v>441</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="153.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B160" s="56" t="s">
-        <v>422</v>
+      <c r="B160" s="55" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B163" s="0" t="s">
-        <v>423</v>
+        <v>443</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B165" s="0" t="s">
-        <v>424</v>
+        <v>444</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B166" s="0" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B167" s="0" t="s">
-        <v>426</v>
+        <v>446</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B168" s="0" t="s">
-        <v>427</v>
+        <v>447</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7667,37 +7988,37 @@
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B173" s="24" t="s">
-        <v>428</v>
-      </c>
-      <c r="I173" s="49" t="s">
-        <v>429</v>
+      <c r="B173" s="26" t="s">
+        <v>448</v>
+      </c>
+      <c r="I173" s="48" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B174" s="5" t="s">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>377</v>
+        <v>397</v>
       </c>
       <c r="D174" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>431</v>
+        <v>451</v>
       </c>
       <c r="F174" s="6" t="s">
         <v>108</v>
       </c>
       <c r="G174" s="6" t="s">
-        <v>432</v>
+        <v>452</v>
       </c>
       <c r="H174" s="6" t="s">
-        <v>433</v>
+        <v>453</v>
       </c>
       <c r="I174" s="6" t="s">
-        <v>434</v>
+        <v>454</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7713,108 +8034,108 @@
       <c r="I175" s="10"/>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H178" s="49"/>
+      <c r="H178" s="48"/>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B184" s="0" t="s">
-        <v>435</v>
+        <v>455</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B187" s="0" t="s">
-        <v>436</v>
+        <v>456</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B188" s="9" t="s">
-        <v>192</v>
+        <v>457</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B189" s="9" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B190" s="9" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B191" s="9" t="s">
-        <v>191</v>
+        <v>458</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B192" s="9" t="s">
-        <v>193</v>
+        <v>459</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B193" s="9" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B194" s="9" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B195" s="9" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B196" s="9" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B197" s="9" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B198" s="9" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B199" s="24" t="s">
+      <c r="B199" s="26" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B200" s="24" t="s">
+      <c r="B200" s="26" t="s">
         <v>98</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>437</v>
+        <v>460</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B201" s="24" t="s">
+      <c r="B201" s="26" t="s">
         <v>61</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>438</v>
+        <v>461</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B202" s="24" t="s">
-        <v>362</v>
+      <c r="B202" s="26" t="s">
+        <v>382</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>439</v>
+        <v>462</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B203" s="57" t="s">
-        <v>203</v>
+      <c r="B203" s="56" t="s">
+        <v>229</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>440</v>
+        <v>463</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7822,17 +8143,17 @@
         <v>22</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>441</v>
+        <v>464</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B208" s="24" t="s">
-        <v>184</v>
+      <c r="B208" s="26" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B209" s="5" t="s">
-        <v>442</v>
+        <v>465</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7842,7 +8163,7 @@
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B217" s="0" t="s">
-        <v>443</v>
+        <v>466</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7850,15 +8171,15 @@
         <v>1</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>444</v>
+        <v>467</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B219" s="58" t="s">
-        <v>445</v>
+      <c r="B219" s="57" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7866,7 +8187,7 @@
         <v>3</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>446</v>
+        <v>469</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7874,7 +8195,7 @@
         <v>4</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>447</v>
+        <v>470</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7882,15 +8203,15 @@
         <v>5</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>448</v>
+        <v>471</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B223" s="58" t="s">
-        <v>449</v>
+      <c r="B223" s="57" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7898,7 +8219,7 @@
         <v>7</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>450</v>
+        <v>473</v>
       </c>
     </row>
   </sheetData>
@@ -7953,26 +8274,26 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="33.2064777327935"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.1376518218623"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.6761133603239"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="33.5263157894737"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.7813765182186"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="43.4898785425101"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="43.8097165991903"/>
     <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -9809,10 +10130,10 @@
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B184" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C184" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D184" s="7" t="s">
         <v>98</v>
@@ -9821,28 +10142,28 @@
         <v>1</v>
       </c>
       <c r="F184" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G184" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H184" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I184" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K184" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L184" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M184" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O184" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9905,7 +10226,7 @@
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B191" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9913,17 +10234,17 @@
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B193" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B194" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B195" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9945,18 +10266,18 @@
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B201" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B202" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9964,10 +10285,10 @@
         <v>1</v>
       </c>
       <c r="C203" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D203" s="9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9993,18 +10314,18 @@
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B209" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B210" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C210" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D210" s="10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10012,7 +10333,7 @@
         <v>1</v>
       </c>
       <c r="C211" s="10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D211" s="10" t="n">
         <v>65535</v>
@@ -10023,7 +10344,7 @@
         <v>2</v>
       </c>
       <c r="C212" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D212" s="10" t="n">
         <v>3394</v>
@@ -10034,124 +10355,139 @@
       <c r="C213" s="10"/>
       <c r="D213" s="10"/>
     </row>
+    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B214" s="0"/>
+    </row>
+    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B215" s="0"/>
+    </row>
+    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B216" s="0"/>
+    </row>
+    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B217" s="0"/>
+    </row>
+    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B218" s="0"/>
+    </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>191</v>
+        <v>458</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>192</v>
+        <v>457</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>193</v>
+        <v>459</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B222" s="1" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B223" s="1" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B224" s="1" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B225" s="1" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B231" s="1" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B233" s="1" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B234" s="1" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B235" s="1" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
